--- a/Code/Results/Cases/Case_4_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.237118489611</v>
+        <v>14.41513068502835</v>
       </c>
       <c r="C2">
-        <v>7.680002242945137</v>
+        <v>5.64123550916532</v>
       </c>
       <c r="D2">
-        <v>7.012546660273205</v>
+        <v>6.027771947450931</v>
       </c>
       <c r="E2">
-        <v>6.456774805157821</v>
+        <v>10.83097045987434</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>39.40567454069666</v>
+        <v>48.53393519002709</v>
       </c>
       <c r="H2">
-        <v>12.77988933000626</v>
+        <v>19.17048577244437</v>
       </c>
       <c r="I2">
-        <v>20.66516912926274</v>
+        <v>29.99722917749839</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.01361392929348</v>
+        <v>12.2512736777822</v>
       </c>
       <c r="L2">
-        <v>6.459517749238183</v>
+        <v>10.32577308329483</v>
       </c>
       <c r="M2">
-        <v>10.414256543219</v>
+        <v>15.27663652685104</v>
       </c>
       <c r="N2">
-        <v>14.69010965041701</v>
+        <v>22.25598391279837</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.38993410922382</v>
+        <v>14.2374770709182</v>
       </c>
       <c r="C3">
-        <v>7.239423735271276</v>
+        <v>5.447739621467536</v>
       </c>
       <c r="D3">
-        <v>6.524123488256384</v>
+        <v>5.91649932033556</v>
       </c>
       <c r="E3">
-        <v>6.466996274845243</v>
+        <v>10.84894094847369</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>38.47719584347173</v>
+        <v>48.46907029153343</v>
       </c>
       <c r="H3">
-        <v>12.71748554369992</v>
+        <v>19.20197521284807</v>
       </c>
       <c r="I3">
-        <v>20.56290954742214</v>
+        <v>30.04639487901669</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.20117144708414</v>
+        <v>12.11983714703899</v>
       </c>
       <c r="L3">
-        <v>6.377965054559046</v>
+        <v>10.33492367177093</v>
       </c>
       <c r="M3">
-        <v>10.09597472593881</v>
+        <v>15.25930818278856</v>
       </c>
       <c r="N3">
-        <v>14.88333957441707</v>
+        <v>22.3138717824864</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.84912547573225</v>
+        <v>14.13089393875891</v>
       </c>
       <c r="C4">
-        <v>6.956370412597029</v>
+        <v>5.324057088308538</v>
       </c>
       <c r="D4">
-        <v>6.232746726896098</v>
+        <v>5.848923327127489</v>
       </c>
       <c r="E4">
-        <v>6.475305493951152</v>
+        <v>10.86094841378613</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.93017742498676</v>
+        <v>48.44096989003064</v>
       </c>
       <c r="H4">
-        <v>12.68697096128771</v>
+        <v>19.22434432480756</v>
       </c>
       <c r="I4">
-        <v>20.5136347403807</v>
+        <v>30.08166759933027</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.6746040177857</v>
+        <v>12.04142036046096</v>
       </c>
       <c r="L4">
-        <v>6.330541553105332</v>
+        <v>10.34198689748503</v>
       </c>
       <c r="M4">
-        <v>9.901033551419653</v>
+        <v>15.25130463680443</v>
       </c>
       <c r="N4">
-        <v>15.00571154468964</v>
+        <v>22.35129584139308</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.62373322910297</v>
+        <v>14.08814086728478</v>
       </c>
       <c r="C5">
-        <v>6.837887377422394</v>
+        <v>5.27246749612549</v>
       </c>
       <c r="D5">
-        <v>6.120816969128342</v>
+        <v>5.82161417677368</v>
       </c>
       <c r="E5">
-        <v>6.479194208386793</v>
+        <v>10.86608676546934</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37.71316073852311</v>
+        <v>48.43247298863197</v>
       </c>
       <c r="H5">
-        <v>12.67643825348986</v>
+        <v>19.23422232412852</v>
       </c>
       <c r="I5">
-        <v>20.49684335291941</v>
+        <v>30.09731853367692</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.45299945976799</v>
+        <v>12.01007559058374</v>
       </c>
       <c r="L5">
-        <v>6.311885921096009</v>
+        <v>10.34522887645107</v>
       </c>
       <c r="M5">
-        <v>9.821821335123172</v>
+        <v>15.24870918456111</v>
       </c>
       <c r="N5">
-        <v>15.0565188005737</v>
+        <v>22.36702022538131</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.58601070098075</v>
+        <v>14.0810843579509</v>
       </c>
       <c r="C6">
-        <v>6.818024610661586</v>
+        <v>5.263830528998208</v>
       </c>
       <c r="D6">
-        <v>6.102090237384139</v>
+        <v>5.817094521784794</v>
       </c>
       <c r="E6">
-        <v>6.479870036667706</v>
+        <v>10.86695480717971</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>37.67748403659375</v>
+        <v>48.43124062320083</v>
       </c>
       <c r="H6">
-        <v>12.67480243664547</v>
+        <v>19.23590858513389</v>
       </c>
       <c r="I6">
-        <v>20.49425053671252</v>
+        <v>30.09999443732641</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.41577648482877</v>
+        <v>12.0049087264496</v>
       </c>
       <c r="L6">
-        <v>6.308828700217724</v>
+        <v>10.34578917803329</v>
       </c>
       <c r="M6">
-        <v>9.808685181863861</v>
+        <v>15.2483185251108</v>
       </c>
       <c r="N6">
-        <v>15.06501214544062</v>
+        <v>22.36965988791323</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.84610576385657</v>
+        <v>14.13031453243904</v>
       </c>
       <c r="C7">
-        <v>6.954785179315961</v>
+        <v>5.323366089645529</v>
       </c>
       <c r="D7">
-        <v>6.231246716231243</v>
+        <v>5.84855404641117</v>
       </c>
       <c r="E7">
-        <v>6.475355914567564</v>
+        <v>10.86101671798489</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.92722666479284</v>
+        <v>48.440843331012</v>
       </c>
       <c r="H7">
-        <v>12.68682129076597</v>
+        <v>19.22447445696318</v>
       </c>
       <c r="I7">
-        <v>20.51339511680145</v>
+        <v>30.08187350502502</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.67164388860856</v>
+        <v>12.04099511465306</v>
       </c>
       <c r="L7">
-        <v>6.330287240950475</v>
+        <v>10.34202914707574</v>
       </c>
       <c r="M7">
-        <v>9.899964200658935</v>
+        <v>15.25126693288544</v>
       </c>
       <c r="N7">
-        <v>15.00639294064585</v>
+        <v>22.35150598650296</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.94938635059368</v>
+        <v>14.35338938935497</v>
       </c>
       <c r="C8">
-        <v>7.530698711920676</v>
+        <v>5.575551443009823</v>
       </c>
       <c r="D8">
-        <v>6.847531051766917</v>
+        <v>5.989274938205578</v>
       </c>
       <c r="E8">
-        <v>6.45987191779269</v>
+        <v>10.83696488141094</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>39.08080779103699</v>
+        <v>48.50913982596574</v>
       </c>
       <c r="H8">
-        <v>12.75671772990335</v>
+        <v>19.18071317186077</v>
       </c>
       <c r="I8">
-        <v>20.62704011340583</v>
+        <v>30.01312526161801</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.73920528572051</v>
+        <v>12.20550186480889</v>
       </c>
       <c r="L8">
-        <v>6.430850703763107</v>
+        <v>10.32862859241781</v>
       </c>
       <c r="M8">
-        <v>10.30447379785638</v>
+        <v>15.27011660910406</v>
       </c>
       <c r="N8">
-        <v>14.75596263708696</v>
+        <v>22.27555383858166</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.95246609133301</v>
+        <v>14.80828843237728</v>
       </c>
       <c r="C9">
-        <v>8.560469497565824</v>
+        <v>6.029949689534924</v>
       </c>
       <c r="D9">
-        <v>7.976768285823442</v>
+        <v>6.2693560673641</v>
       </c>
       <c r="E9">
-        <v>6.446040825756929</v>
+        <v>10.79750537626753</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.52148836285449</v>
+        <v>48.73577447672351</v>
       </c>
       <c r="H9">
-        <v>12.95831366882962</v>
+        <v>19.11900055537076</v>
       </c>
       <c r="I9">
-        <v>20.9619296889721</v>
+        <v>29.91872117812607</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.61525410880963</v>
+        <v>12.54460419333498</v>
       </c>
       <c r="L9">
-        <v>6.648895662325745</v>
+        <v>10.31379548562001</v>
       </c>
       <c r="M9">
-        <v>11.09728697411719</v>
+        <v>15.32784198184309</v>
       </c>
       <c r="N9">
-        <v>14.29439949345482</v>
+        <v>22.14149415245971</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.45112512209199</v>
+        <v>15.14993435696046</v>
       </c>
       <c r="C10">
-        <v>9.256889141443125</v>
+        <v>6.337659338027941</v>
       </c>
       <c r="D10">
-        <v>8.730447348964416</v>
+        <v>6.475299793634508</v>
       </c>
       <c r="E10">
-        <v>6.446532260080098</v>
+        <v>10.77318751953779</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.4175881446242</v>
+        <v>48.95818781598944</v>
       </c>
       <c r="H10">
-        <v>13.14932806844244</v>
+        <v>19.08838594117125</v>
       </c>
       <c r="I10">
-        <v>21.28276283135237</v>
+        <v>29.87407908101223</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.86480987578706</v>
+        <v>12.80156484893017</v>
       </c>
       <c r="L10">
-        <v>6.821523692282201</v>
+        <v>10.30984829755521</v>
       </c>
       <c r="M10">
-        <v>11.67441268535395</v>
+        <v>15.38267876587796</v>
       </c>
       <c r="N10">
-        <v>13.97332430793222</v>
+        <v>22.05201630632008</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.10046903079072</v>
+        <v>15.3062897147894</v>
       </c>
       <c r="C11">
-        <v>9.560944743496766</v>
+        <v>6.471687184492087</v>
       </c>
       <c r="D11">
-        <v>9.057407071404576</v>
+        <v>6.56855049561009</v>
       </c>
       <c r="E11">
-        <v>6.449200287197505</v>
+        <v>10.76313410975087</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.30146706853733</v>
+        <v>49.07132638701876</v>
       </c>
       <c r="H11">
-        <v>13.24629864453431</v>
+        <v>19.07766071795522</v>
       </c>
       <c r="I11">
-        <v>21.44632621082081</v>
+        <v>29.85915010811011</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.40619308310303</v>
+        <v>12.91967718867474</v>
       </c>
       <c r="L11">
-        <v>6.902695731906946</v>
+        <v>10.30955477017311</v>
       </c>
       <c r="M11">
-        <v>11.93492221609636</v>
+        <v>15.41026630226748</v>
       </c>
       <c r="N11">
-        <v>13.83122556697636</v>
+        <v>22.01325631516643</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.34178014603896</v>
+        <v>15.3655761723097</v>
       </c>
       <c r="C12">
-        <v>9.674283292091769</v>
+        <v>6.521564770498174</v>
       </c>
       <c r="D12">
-        <v>9.178983615459352</v>
+        <v>6.603762190636389</v>
       </c>
       <c r="E12">
-        <v>6.450573484739374</v>
+        <v>10.75947179600914</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.63917006466836</v>
+        <v>49.11586952703592</v>
       </c>
       <c r="H12">
-        <v>13.28452995960825</v>
+        <v>19.07405986755829</v>
       </c>
       <c r="I12">
-        <v>21.51090747121994</v>
+        <v>29.85427096515118</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.60738944452717</v>
+        <v>12.96453810651794</v>
       </c>
       <c r="L12">
-        <v>6.933808616245424</v>
+        <v>10.30965885807938</v>
       </c>
       <c r="M12">
-        <v>12.03321973692845</v>
+        <v>15.42108737313825</v>
       </c>
       <c r="N12">
-        <v>13.77799451980224</v>
+        <v>21.99885761690231</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.29001191548979</v>
+        <v>15.35280519545708</v>
       </c>
       <c r="C13">
-        <v>9.649953297319724</v>
+        <v>6.510861984899864</v>
       </c>
       <c r="D13">
-        <v>9.152898562975555</v>
+        <v>6.596183767758784</v>
       </c>
       <c r="E13">
-        <v>6.45026141641041</v>
+        <v>10.76025411164395</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.56630722068591</v>
+        <v>49.10620110122</v>
       </c>
       <c r="H13">
-        <v>13.27622798525016</v>
+        <v>19.07481489008966</v>
       </c>
       <c r="I13">
-        <v>21.49687941253618</v>
+        <v>29.85528733844217</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.56422656982766</v>
+        <v>12.95487117979941</v>
       </c>
       <c r="L13">
-        <v>6.927091304031083</v>
+        <v>10.30962688090751</v>
       </c>
       <c r="M13">
-        <v>12.01206609202812</v>
+        <v>15.41874031020122</v>
       </c>
       <c r="N13">
-        <v>13.78943285783004</v>
+        <v>22.00194624180511</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.12041318526763</v>
+        <v>15.31116600486372</v>
       </c>
       <c r="C14">
-        <v>9.570305050102865</v>
+        <v>6.475808302356807</v>
       </c>
       <c r="D14">
-        <v>9.067453767287136</v>
+        <v>6.57144960408784</v>
       </c>
       <c r="E14">
-        <v>6.449305921434504</v>
+        <v>10.76282991131995</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.3291903390249</v>
+        <v>49.07495703056624</v>
       </c>
       <c r="H14">
-        <v>13.24941332628647</v>
+        <v>19.07735524295059</v>
       </c>
       <c r="I14">
-        <v>21.45158573867943</v>
+        <v>29.8587331804695</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.42282161160141</v>
+        <v>12.92336546477224</v>
       </c>
       <c r="L14">
-        <v>6.905247922832665</v>
+        <v>10.3095590244259</v>
       </c>
       <c r="M14">
-        <v>11.94301656758328</v>
+        <v>15.4111490910826</v>
       </c>
       <c r="N14">
-        <v>13.82683455421292</v>
+        <v>22.01206614038633</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.01593488204232</v>
+        <v>15.28566929451719</v>
       </c>
       <c r="C15">
-        <v>9.521284786438166</v>
+        <v>6.454222297882241</v>
       </c>
       <c r="D15">
-        <v>9.014826679927374</v>
+        <v>6.556285056312909</v>
       </c>
       <c r="E15">
-        <v>6.448768256487088</v>
+        <v>10.76442649499871</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.18433808033981</v>
+        <v>49.05603989099691</v>
       </c>
       <c r="H15">
-        <v>13.23318714740936</v>
+        <v>19.07897126402664</v>
       </c>
       <c r="I15">
-        <v>21.424189584827</v>
+        <v>29.86094468827969</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.33571265687539</v>
+        <v>12.90408358767514</v>
       </c>
       <c r="L15">
-        <v>6.891916890815486</v>
+        <v>10.309545467215</v>
       </c>
       <c r="M15">
-        <v>11.90067433167351</v>
+        <v>15.40654781691026</v>
       </c>
       <c r="N15">
-        <v>13.84981986496224</v>
+        <v>22.01830116804327</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.40804346108169</v>
+        <v>15.13973016955671</v>
       </c>
       <c r="C16">
-        <v>9.236764466140189</v>
+        <v>6.328778772579481</v>
       </c>
       <c r="D16">
-        <v>8.708764116999532</v>
+        <v>6.469193624581602</v>
       </c>
       <c r="E16">
-        <v>6.446408046296415</v>
+        <v>10.7738648024193</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.36024726414364</v>
+        <v>48.9510329850431</v>
       </c>
       <c r="H16">
-        <v>13.14319883934918</v>
+        <v>19.08915130120624</v>
       </c>
       <c r="I16">
-        <v>21.27243745906342</v>
+        <v>29.87516302403452</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.82889131761523</v>
+        <v>12.7938669556319</v>
       </c>
       <c r="L16">
-        <v>6.81627162078195</v>
+        <v>10.30989764301375</v>
       </c>
       <c r="M16">
-        <v>11.6573415710483</v>
+        <v>15.38092854551207</v>
       </c>
       <c r="N16">
-        <v>13.98269119117741</v>
+        <v>22.05458842240279</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02687594435985</v>
+        <v>15.05040090008595</v>
       </c>
       <c r="C17">
-        <v>9.058975957923574</v>
+        <v>6.250283863815</v>
       </c>
       <c r="D17">
-        <v>8.516968417069936</v>
+        <v>6.415627131754001</v>
       </c>
       <c r="E17">
-        <v>6.445594139021095</v>
+        <v>10.77991303011765</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.86010038535342</v>
+        <v>48.88966482663786</v>
       </c>
       <c r="H17">
-        <v>13.09061854230229</v>
+        <v>19.0962165824816</v>
       </c>
       <c r="I17">
-        <v>21.18393243689759</v>
+        <v>29.88526373309453</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.51109791438662</v>
+        <v>12.72653569878431</v>
       </c>
       <c r="L17">
-        <v>6.770538587840247</v>
+        <v>10.31049789565387</v>
       </c>
       <c r="M17">
-        <v>11.50749908850251</v>
+        <v>15.36588473917942</v>
       </c>
       <c r="N17">
-        <v>14.06522320831157</v>
+        <v>22.07734688510116</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.80458338266423</v>
+        <v>14.99911279561937</v>
       </c>
       <c r="C18">
-        <v>8.955514275386818</v>
+        <v>6.204576564686962</v>
       </c>
       <c r="D18">
-        <v>8.405153603959361</v>
+        <v>6.384778397536577</v>
       </c>
       <c r="E18">
-        <v>6.445355376160043</v>
+        <v>10.78348679686892</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.57444002667751</v>
+        <v>48.85549472782284</v>
       </c>
       <c r="H18">
-        <v>13.0613205533711</v>
+        <v>19.10058168449815</v>
       </c>
       <c r="I18">
-        <v>21.13467808428535</v>
+        <v>29.89157966246162</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.32576106236324</v>
+        <v>12.6879257824109</v>
       </c>
       <c r="L18">
-        <v>6.744483174538339</v>
+        <v>10.31098457719259</v>
       </c>
       <c r="M18">
-        <v>11.42112569153979</v>
+        <v>15.3574809809377</v>
       </c>
       <c r="N18">
-        <v>14.11306543344223</v>
+        <v>22.09061996127715</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.72879195382655</v>
+        <v>14.98176503039335</v>
       </c>
       <c r="C19">
-        <v>8.920276534778186</v>
+        <v>6.189005491491311</v>
       </c>
       <c r="D19">
-        <v>8.367036115449377</v>
+        <v>6.374328082719366</v>
       </c>
       <c r="E19">
-        <v>6.445313592981933</v>
+        <v>10.78471313852665</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.47806826422892</v>
+        <v>48.84411949519716</v>
       </c>
       <c r="H19">
-        <v>13.05156116381756</v>
+        <v>19.10211138060433</v>
       </c>
       <c r="I19">
-        <v>21.11828167850166</v>
+        <v>29.89380505575397</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.26256891776523</v>
+        <v>12.67487452057647</v>
       </c>
       <c r="L19">
-        <v>6.735704200605126</v>
+        <v>10.31117367197813</v>
       </c>
       <c r="M19">
-        <v>11.39185087581863</v>
+        <v>15.35467855160143</v>
       </c>
       <c r="N19">
-        <v>14.12932765204971</v>
+        <v>22.09514544963976</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.06776752194029</v>
+        <v>15.05990107544901</v>
       </c>
       <c r="C20">
-        <v>9.078026082639029</v>
+        <v>6.25869780067468</v>
       </c>
       <c r="D20">
-        <v>8.537540188685439</v>
+        <v>6.42133366238167</v>
       </c>
       <c r="E20">
-        <v>6.445656960797602</v>
+        <v>10.77925935802929</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.91313434568227</v>
+        <v>48.89608104383746</v>
       </c>
       <c r="H20">
-        <v>13.09611757699255</v>
+        <v>19.0954332819824</v>
       </c>
       <c r="I20">
-        <v>21.19318223648116</v>
+        <v>29.88413609288929</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.54519099942374</v>
+        <v>12.73369139038311</v>
       </c>
       <c r="L20">
-        <v>6.775381215423097</v>
+        <v>10.31041936525712</v>
       </c>
       <c r="M20">
-        <v>11.52347000145453</v>
+        <v>15.36746044288465</v>
       </c>
       <c r="N20">
-        <v>14.05639897841696</v>
+        <v>22.07490527186291</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.17035212137908</v>
+        <v>15.32339477393868</v>
       </c>
       <c r="C21">
-        <v>9.593748245433334</v>
+        <v>6.486128335714484</v>
       </c>
       <c r="D21">
-        <v>9.092611252589451</v>
+        <v>6.578717643139685</v>
       </c>
       <c r="E21">
-        <v>6.449576631927828</v>
+        <v>10.76206941263647</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.39875640302014</v>
+        <v>49.08408820534371</v>
       </c>
       <c r="H21">
-        <v>13.25724794787769</v>
+        <v>19.07659657947907</v>
       </c>
       <c r="I21">
-        <v>21.46481696588366</v>
+        <v>29.85770003944717</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.46445855278792</v>
+        <v>12.9326161362734</v>
       </c>
       <c r="L21">
-        <v>6.911653718633247</v>
+        <v>10.3095731203811</v>
       </c>
       <c r="M21">
-        <v>11.96330805826269</v>
+        <v>15.41336870550616</v>
       </c>
       <c r="N21">
-        <v>13.81583297384314</v>
+        <v>22.00908611764164</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.86429267644591</v>
+        <v>15.49603264312919</v>
       </c>
       <c r="C22">
-        <v>9.920326903832619</v>
+        <v>6.629654765071488</v>
       </c>
       <c r="D22">
-        <v>9.442374070158472</v>
+        <v>6.680976166240988</v>
       </c>
       <c r="E22">
-        <v>6.4542591449084</v>
+        <v>10.75167799833638</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.38715362890122</v>
+        <v>49.2168597568918</v>
       </c>
       <c r="H22">
-        <v>13.37139055045643</v>
+        <v>19.06697018755848</v>
       </c>
       <c r="I22">
-        <v>21.6578053735217</v>
+        <v>29.84493491802085</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.04306242857997</v>
+        <v>13.06338926705616</v>
       </c>
       <c r="L22">
-        <v>7.002898586243289</v>
+        <v>10.310274227941</v>
       </c>
       <c r="M22">
-        <v>12.24869722291668</v>
+        <v>15.44555104907681</v>
       </c>
       <c r="N22">
-        <v>13.66198896834455</v>
+        <v>21.96769466328697</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.49633547118357</v>
+        <v>15.40387178152984</v>
       </c>
       <c r="C23">
-        <v>9.746971569780467</v>
+        <v>6.553525758359441</v>
       </c>
       <c r="D23">
-        <v>9.256872283823499</v>
+        <v>6.626465898592924</v>
       </c>
       <c r="E23">
-        <v>6.451562048620853</v>
+        <v>10.75714706600085</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.85804629904077</v>
+        <v>49.14509866354037</v>
       </c>
       <c r="H23">
-        <v>13.30964154057948</v>
+        <v>19.07186231688623</v>
       </c>
       <c r="I23">
-        <v>21.55335260773527</v>
+        <v>29.85133487468233</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.73625486378042</v>
+        <v>12.99353670038301</v>
       </c>
       <c r="L23">
-        <v>6.954001213913617</v>
+        <v>10.30978554690456</v>
       </c>
       <c r="M23">
-        <v>12.09658607939012</v>
+        <v>15.42817734585024</v>
       </c>
       <c r="N23">
-        <v>13.7437851745922</v>
+        <v>21.98963757347128</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04929027043006</v>
+        <v>15.05560582848276</v>
       </c>
       <c r="C24">
-        <v>9.069417413058604</v>
+        <v>6.25489566344552</v>
       </c>
       <c r="D24">
-        <v>8.528244518945993</v>
+        <v>6.41875390098164</v>
       </c>
       <c r="E24">
-        <v>6.445627846132809</v>
+        <v>10.7795545823863</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.88915182839096</v>
+        <v>48.89317680890735</v>
       </c>
       <c r="H24">
-        <v>13.09362856781308</v>
+        <v>19.09578646772339</v>
       </c>
       <c r="I24">
-        <v>21.18899533844314</v>
+        <v>29.88464431382936</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.5297857231308</v>
+        <v>12.7304559884462</v>
       </c>
       <c r="L24">
-        <v>6.773191124516694</v>
+        <v>10.31045442775989</v>
       </c>
       <c r="M24">
-        <v>11.51625025393107</v>
+        <v>15.36674730325968</v>
       </c>
       <c r="N24">
-        <v>14.0603871878354</v>
+        <v>22.07600853659433</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.42278617673625</v>
+        <v>14.6836882925253</v>
       </c>
       <c r="C25">
-        <v>8.292526704351545</v>
+        <v>5.911506204978074</v>
       </c>
       <c r="D25">
-        <v>7.684812571219616</v>
+        <v>6.193391206233444</v>
       </c>
       <c r="E25">
-        <v>6.447954543665442</v>
+        <v>10.80735778254447</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40.84273357085555</v>
+        <v>48.66459204117118</v>
       </c>
       <c r="H25">
-        <v>12.89649825145298</v>
+        <v>19.13311131168547</v>
       </c>
       <c r="I25">
-        <v>20.85866331260658</v>
+        <v>29.93992443300026</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.13063495797611</v>
+        <v>12.45133027540331</v>
       </c>
       <c r="L25">
-        <v>6.587704461098251</v>
+        <v>10.31658538597273</v>
       </c>
       <c r="M25">
-        <v>10.88341752178499</v>
+        <v>15.3100253046797</v>
       </c>
       <c r="N25">
-        <v>14.41610672056107</v>
+        <v>22.17617354399878</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.41513068502835</v>
+        <v>14.23711848961105</v>
       </c>
       <c r="C2">
-        <v>5.64123550916532</v>
+        <v>7.680002242945111</v>
       </c>
       <c r="D2">
-        <v>6.027771947450931</v>
+        <v>7.012546660273257</v>
       </c>
       <c r="E2">
-        <v>10.83097045987434</v>
+        <v>6.45677480515782</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.53393519002709</v>
+        <v>39.40567454069684</v>
       </c>
       <c r="H2">
-        <v>19.17048577244437</v>
+        <v>12.77988933000652</v>
       </c>
       <c r="I2">
-        <v>29.99722917749839</v>
+        <v>20.66516912926295</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.2512736777822</v>
+        <v>12.01361392929339</v>
       </c>
       <c r="L2">
-        <v>10.32577308329483</v>
+        <v>6.459517749238186</v>
       </c>
       <c r="M2">
-        <v>15.27663652685104</v>
+        <v>10.41425654321907</v>
       </c>
       <c r="N2">
-        <v>22.25598391279837</v>
+        <v>14.69010965041711</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.2374770709182</v>
+        <v>13.38993410922383</v>
       </c>
       <c r="C3">
-        <v>5.447739621467536</v>
+        <v>7.239423735271247</v>
       </c>
       <c r="D3">
-        <v>5.91649932033556</v>
+        <v>6.524123488256295</v>
       </c>
       <c r="E3">
-        <v>10.84894094847369</v>
+        <v>6.466996274845183</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.46907029153343</v>
+        <v>38.47719584347171</v>
       </c>
       <c r="H3">
-        <v>19.20197521284807</v>
+        <v>12.71748554369987</v>
       </c>
       <c r="I3">
-        <v>30.04639487901669</v>
+        <v>20.56290954742209</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.11983714703899</v>
+        <v>11.20117144708414</v>
       </c>
       <c r="L3">
-        <v>10.33492367177093</v>
+        <v>6.377965054559071</v>
       </c>
       <c r="M3">
-        <v>15.25930818278856</v>
+        <v>10.09597472593879</v>
       </c>
       <c r="N3">
-        <v>22.3138717824864</v>
+        <v>14.88333957441701</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.13089393875891</v>
+        <v>12.8491254757323</v>
       </c>
       <c r="C4">
-        <v>5.324057088308538</v>
+        <v>6.956370412596997</v>
       </c>
       <c r="D4">
-        <v>5.848923327127489</v>
+        <v>6.232746726896091</v>
       </c>
       <c r="E4">
-        <v>10.86094841378613</v>
+        <v>6.475305493951216</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>48.44096989003064</v>
+        <v>37.93017742498717</v>
       </c>
       <c r="H4">
-        <v>19.22434432480756</v>
+        <v>12.68697096128792</v>
       </c>
       <c r="I4">
-        <v>30.08166759933027</v>
+        <v>20.51363474038097</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.04142036046096</v>
+        <v>10.67460401778561</v>
       </c>
       <c r="L4">
-        <v>10.34198689748503</v>
+        <v>6.330541553105373</v>
       </c>
       <c r="M4">
-        <v>15.25130463680443</v>
+        <v>9.901033551419749</v>
       </c>
       <c r="N4">
-        <v>22.35129584139308</v>
+        <v>15.00571154468981</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.08814086728478</v>
+        <v>12.62373322910297</v>
       </c>
       <c r="C5">
-        <v>5.27246749612549</v>
+        <v>6.837887377422315</v>
       </c>
       <c r="D5">
-        <v>5.82161417677368</v>
+        <v>6.120816969128344</v>
       </c>
       <c r="E5">
-        <v>10.86608676546934</v>
+        <v>6.479194208386799</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>48.43247298863197</v>
+        <v>37.71316073852324</v>
       </c>
       <c r="H5">
-        <v>19.23422232412852</v>
+        <v>12.67643825348991</v>
       </c>
       <c r="I5">
-        <v>30.09731853367692</v>
+        <v>20.49684335291948</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.01007559058374</v>
+        <v>10.45299945976797</v>
       </c>
       <c r="L5">
-        <v>10.34522887645107</v>
+        <v>6.311885921096041</v>
       </c>
       <c r="M5">
-        <v>15.24870918456111</v>
+        <v>9.821821335123198</v>
       </c>
       <c r="N5">
-        <v>22.36702022538131</v>
+        <v>15.05651880057376</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.0810843579509</v>
+        <v>12.58601070098072</v>
       </c>
       <c r="C6">
-        <v>5.263830528998208</v>
+        <v>6.818024610661507</v>
       </c>
       <c r="D6">
-        <v>5.817094521784794</v>
+        <v>6.102090237384187</v>
       </c>
       <c r="E6">
-        <v>10.86695480717971</v>
+        <v>6.479870036667587</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>48.43124062320083</v>
+        <v>37.67748403659357</v>
       </c>
       <c r="H6">
-        <v>19.23590858513389</v>
+        <v>12.67480243664533</v>
       </c>
       <c r="I6">
-        <v>30.09999443732641</v>
+        <v>20.49425053671229</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.0049087264496</v>
+        <v>10.41577648482879</v>
       </c>
       <c r="L6">
-        <v>10.34578917803329</v>
+        <v>6.308828700217704</v>
       </c>
       <c r="M6">
-        <v>15.2483185251108</v>
+        <v>9.808685181863812</v>
       </c>
       <c r="N6">
-        <v>22.36965988791323</v>
+        <v>15.06501214544043</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.13031453243904</v>
+        <v>12.84610576385659</v>
       </c>
       <c r="C7">
-        <v>5.323366089645529</v>
+        <v>6.954785179315946</v>
       </c>
       <c r="D7">
-        <v>5.84855404641117</v>
+        <v>6.231246716231268</v>
       </c>
       <c r="E7">
-        <v>10.86101671798489</v>
+        <v>6.475355914567506</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>48.440843331012</v>
+        <v>37.92722666479285</v>
       </c>
       <c r="H7">
-        <v>19.22447445696318</v>
+        <v>12.68682129076588</v>
       </c>
       <c r="I7">
-        <v>30.08187350502502</v>
+        <v>20.51339511680136</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.04099511465306</v>
+        <v>10.67164388860859</v>
       </c>
       <c r="L7">
-        <v>10.34202914707574</v>
+        <v>6.330287240950426</v>
       </c>
       <c r="M7">
-        <v>15.25126693288544</v>
+        <v>9.899964200658891</v>
       </c>
       <c r="N7">
-        <v>22.35150598650296</v>
+        <v>15.00639294064572</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.35338938935497</v>
+        <v>13.9493863505937</v>
       </c>
       <c r="C8">
-        <v>5.575551443009823</v>
+        <v>7.530698711920832</v>
       </c>
       <c r="D8">
-        <v>5.989274938205578</v>
+        <v>6.847531051766925</v>
       </c>
       <c r="E8">
-        <v>10.83696488141094</v>
+        <v>6.459871917792761</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.50913982596574</v>
+        <v>39.08080779103694</v>
       </c>
       <c r="H8">
-        <v>19.18071317186077</v>
+        <v>12.75671772990341</v>
       </c>
       <c r="I8">
-        <v>30.01312526161801</v>
+        <v>20.62704011340587</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.20550186480889</v>
+        <v>11.73920528572053</v>
       </c>
       <c r="L8">
-        <v>10.32862859241781</v>
+        <v>6.430850703763134</v>
       </c>
       <c r="M8">
-        <v>15.27011660910406</v>
+        <v>10.30447379785638</v>
       </c>
       <c r="N8">
-        <v>22.27555383858166</v>
+        <v>14.755962637087</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.80828843237728</v>
+        <v>15.95246609133305</v>
       </c>
       <c r="C9">
-        <v>6.029949689534924</v>
+        <v>8.560469497565654</v>
       </c>
       <c r="D9">
-        <v>6.2693560673641</v>
+        <v>7.976768285823481</v>
       </c>
       <c r="E9">
-        <v>10.79750537626753</v>
+        <v>6.446040825756867</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48.73577447672351</v>
+        <v>41.52148836285466</v>
       </c>
       <c r="H9">
-        <v>19.11900055537076</v>
+        <v>12.95831366882965</v>
       </c>
       <c r="I9">
-        <v>29.91872117812607</v>
+        <v>20.96192968897212</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.54460419333498</v>
+        <v>13.61525410880964</v>
       </c>
       <c r="L9">
-        <v>10.31379548562001</v>
+        <v>6.648895662325762</v>
       </c>
       <c r="M9">
-        <v>15.32784198184309</v>
+        <v>11.09728697411719</v>
       </c>
       <c r="N9">
-        <v>22.14149415245971</v>
+        <v>14.29439949345483</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.14993435696046</v>
+        <v>17.45112512209211</v>
       </c>
       <c r="C10">
-        <v>6.337659338027941</v>
+        <v>9.256889141442937</v>
       </c>
       <c r="D10">
-        <v>6.475299793634508</v>
+        <v>8.730447348964445</v>
       </c>
       <c r="E10">
-        <v>10.77318751953779</v>
+        <v>6.446532260079983</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>48.95818781598944</v>
+        <v>43.417588144624</v>
       </c>
       <c r="H10">
-        <v>19.08838594117125</v>
+        <v>13.14932806844238</v>
       </c>
       <c r="I10">
-        <v>29.87407908101223</v>
+        <v>21.28276283135218</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.80156484893017</v>
+        <v>14.86480987578715</v>
       </c>
       <c r="L10">
-        <v>10.30984829755521</v>
+        <v>6.821523692282219</v>
       </c>
       <c r="M10">
-        <v>15.38267876587796</v>
+        <v>11.6744126853539</v>
       </c>
       <c r="N10">
-        <v>22.05201630632008</v>
+        <v>13.97332430793207</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.3062897147894</v>
+        <v>18.10046903079069</v>
       </c>
       <c r="C11">
-        <v>6.471687184492087</v>
+        <v>9.560944743497108</v>
       </c>
       <c r="D11">
-        <v>6.56855049561009</v>
+        <v>9.057407071404624</v>
       </c>
       <c r="E11">
-        <v>10.76313410975087</v>
+        <v>6.449200287197559</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>49.07132638701876</v>
+        <v>44.30146706853743</v>
       </c>
       <c r="H11">
-        <v>19.07766071795522</v>
+        <v>13.24629864453427</v>
       </c>
       <c r="I11">
-        <v>29.85915010811011</v>
+        <v>21.44632621082085</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.91967718867474</v>
+        <v>15.40619308310309</v>
       </c>
       <c r="L11">
-        <v>10.30955477017311</v>
+        <v>6.90269573190693</v>
       </c>
       <c r="M11">
-        <v>15.41026630226748</v>
+        <v>11.93492221609636</v>
       </c>
       <c r="N11">
-        <v>22.01325631516643</v>
+        <v>13.83122556697631</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.3655761723097</v>
+        <v>18.34178014603902</v>
       </c>
       <c r="C12">
-        <v>6.521564770498174</v>
+        <v>9.674283292091841</v>
       </c>
       <c r="D12">
-        <v>6.603762190636389</v>
+        <v>9.17898361545936</v>
       </c>
       <c r="E12">
-        <v>10.75947179600914</v>
+        <v>6.450573484739321</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>49.11586952703592</v>
+        <v>44.63917006466846</v>
       </c>
       <c r="H12">
-        <v>19.07405986755829</v>
+        <v>13.28452995960819</v>
       </c>
       <c r="I12">
-        <v>29.85427096515118</v>
+        <v>21.5109074712199</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.96453810651794</v>
+        <v>15.60738944452723</v>
       </c>
       <c r="L12">
-        <v>10.30965885807938</v>
+        <v>6.933808616245349</v>
       </c>
       <c r="M12">
-        <v>15.42108737313825</v>
+        <v>12.03321973692841</v>
       </c>
       <c r="N12">
-        <v>21.99885761690231</v>
+        <v>13.77799451980223</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.35280519545708</v>
+        <v>18.29001191548976</v>
       </c>
       <c r="C13">
-        <v>6.510861984899864</v>
+        <v>9.649953297319875</v>
       </c>
       <c r="D13">
-        <v>6.596183767758784</v>
+        <v>9.152898562975484</v>
       </c>
       <c r="E13">
-        <v>10.76025411164395</v>
+        <v>6.45026141641058</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>49.10620110122</v>
+        <v>44.56630722068607</v>
       </c>
       <c r="H13">
-        <v>19.07481489008966</v>
+        <v>13.27622798525022</v>
       </c>
       <c r="I13">
-        <v>29.85528733844217</v>
+        <v>21.49687941253633</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.95487117979941</v>
+        <v>15.56422656982767</v>
       </c>
       <c r="L13">
-        <v>10.30962688090751</v>
+        <v>6.92709130403114</v>
       </c>
       <c r="M13">
-        <v>15.41874031020122</v>
+        <v>12.01206609202816</v>
       </c>
       <c r="N13">
-        <v>22.00194624180511</v>
+        <v>13.78943285783017</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.31116600486372</v>
+        <v>18.12041318526758</v>
       </c>
       <c r="C14">
-        <v>6.475808302356807</v>
+        <v>9.570305050102784</v>
       </c>
       <c r="D14">
-        <v>6.57144960408784</v>
+        <v>9.067453767287095</v>
       </c>
       <c r="E14">
-        <v>10.76282991131995</v>
+        <v>6.449305921434504</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>49.07495703056624</v>
+        <v>44.32919033902506</v>
       </c>
       <c r="H14">
-        <v>19.07735524295059</v>
+        <v>13.24941332628655</v>
       </c>
       <c r="I14">
-        <v>29.8587331804695</v>
+        <v>21.45158573867952</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.92336546477224</v>
+        <v>15.42282161160137</v>
       </c>
       <c r="L14">
-        <v>10.3095590244259</v>
+        <v>6.905247922832708</v>
       </c>
       <c r="M14">
-        <v>15.4111490910826</v>
+        <v>11.9430165675833</v>
       </c>
       <c r="N14">
-        <v>22.01206614038633</v>
+        <v>13.82683455421301</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.28566929451719</v>
+        <v>18.0159348820423</v>
       </c>
       <c r="C15">
-        <v>6.454222297882241</v>
+        <v>9.521284786438232</v>
       </c>
       <c r="D15">
-        <v>6.556285056312909</v>
+        <v>9.014826679927381</v>
       </c>
       <c r="E15">
-        <v>10.76442649499871</v>
+        <v>6.448768256486978</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>49.05603989099691</v>
+        <v>44.18433808033985</v>
       </c>
       <c r="H15">
-        <v>19.07897126402664</v>
+        <v>13.2331871474095</v>
       </c>
       <c r="I15">
-        <v>29.86094468827969</v>
+        <v>21.42418958482709</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.90408358767514</v>
+        <v>15.33571265687539</v>
       </c>
       <c r="L15">
-        <v>10.309545467215</v>
+        <v>6.891916890815446</v>
       </c>
       <c r="M15">
-        <v>15.40654781691026</v>
+        <v>11.90067433167352</v>
       </c>
       <c r="N15">
-        <v>22.01830116804327</v>
+        <v>13.84981986496228</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.13973016955671</v>
+        <v>17.40804346108172</v>
       </c>
       <c r="C16">
-        <v>6.328778772579481</v>
+        <v>9.236764466140333</v>
       </c>
       <c r="D16">
-        <v>6.469193624581602</v>
+        <v>8.708764116999665</v>
       </c>
       <c r="E16">
-        <v>10.7738648024193</v>
+        <v>6.446408046296481</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>48.9510329850431</v>
+        <v>43.36024726414359</v>
       </c>
       <c r="H16">
-        <v>19.08915130120624</v>
+        <v>13.14319883934924</v>
       </c>
       <c r="I16">
-        <v>29.87516302403452</v>
+        <v>21.27243745906344</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.7938669556319</v>
+        <v>14.82889131761531</v>
       </c>
       <c r="L16">
-        <v>10.30989764301375</v>
+        <v>6.816271620781952</v>
       </c>
       <c r="M16">
-        <v>15.38092854551207</v>
+        <v>11.6573415710483</v>
       </c>
       <c r="N16">
-        <v>22.05458842240279</v>
+        <v>13.98269119117745</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.05040090008595</v>
+        <v>17.02687594435986</v>
       </c>
       <c r="C17">
-        <v>6.250283863815</v>
+        <v>9.058975957923748</v>
       </c>
       <c r="D17">
-        <v>6.415627131754001</v>
+        <v>8.516968417069931</v>
       </c>
       <c r="E17">
-        <v>10.77991303011765</v>
+        <v>6.445594139021036</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>48.88966482663786</v>
+        <v>42.86010038535338</v>
       </c>
       <c r="H17">
-        <v>19.0962165824816</v>
+        <v>13.09061854230221</v>
       </c>
       <c r="I17">
-        <v>29.88526373309453</v>
+        <v>21.18393243689755</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.72653569878431</v>
+        <v>14.51109791438664</v>
       </c>
       <c r="L17">
-        <v>10.31049789565387</v>
+        <v>6.770538587840188</v>
       </c>
       <c r="M17">
-        <v>15.36588473917942</v>
+        <v>11.50749908850249</v>
       </c>
       <c r="N17">
-        <v>22.07734688510116</v>
+        <v>14.06522320831151</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.99911279561937</v>
+        <v>16.80458338266422</v>
       </c>
       <c r="C18">
-        <v>6.204576564686962</v>
+        <v>8.955514275386806</v>
       </c>
       <c r="D18">
-        <v>6.384778397536577</v>
+        <v>8.405153603959386</v>
       </c>
       <c r="E18">
-        <v>10.78348679686892</v>
+        <v>6.445355376160043</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>48.85549472782284</v>
+        <v>42.57444002667762</v>
       </c>
       <c r="H18">
-        <v>19.10058168449815</v>
+        <v>13.06132055337116</v>
       </c>
       <c r="I18">
-        <v>29.89157966246162</v>
+        <v>21.1346780842854</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.6879257824109</v>
+        <v>14.32576106236323</v>
       </c>
       <c r="L18">
-        <v>10.31098457719259</v>
+        <v>6.744483174538319</v>
       </c>
       <c r="M18">
-        <v>15.3574809809377</v>
+        <v>11.42112569153981</v>
       </c>
       <c r="N18">
-        <v>22.09061996127715</v>
+        <v>14.11306543344214</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98176503039335</v>
+        <v>16.72879195382665</v>
       </c>
       <c r="C19">
-        <v>6.189005491491311</v>
+        <v>8.920276534778361</v>
       </c>
       <c r="D19">
-        <v>6.374328082719366</v>
+        <v>8.367036115449425</v>
       </c>
       <c r="E19">
-        <v>10.78471313852665</v>
+        <v>6.445313592981927</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>48.84411949519716</v>
+        <v>42.47806826422879</v>
       </c>
       <c r="H19">
-        <v>19.10211138060433</v>
+        <v>13.0515611638175</v>
       </c>
       <c r="I19">
-        <v>29.89380505575397</v>
+        <v>21.11828167850152</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.67487452057647</v>
+        <v>14.26256891776536</v>
       </c>
       <c r="L19">
-        <v>10.31117367197813</v>
+        <v>6.735704200605129</v>
       </c>
       <c r="M19">
-        <v>15.35467855160143</v>
+        <v>11.39185087581856</v>
       </c>
       <c r="N19">
-        <v>22.09514544963976</v>
+        <v>14.12932765204966</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.05990107544901</v>
+        <v>17.06776752194031</v>
       </c>
       <c r="C20">
-        <v>6.25869780067468</v>
+        <v>9.078026082639104</v>
       </c>
       <c r="D20">
-        <v>6.42133366238167</v>
+        <v>8.537540188685414</v>
       </c>
       <c r="E20">
-        <v>10.77925935802929</v>
+        <v>6.445656960797655</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>48.89608104383746</v>
+        <v>42.91313434568227</v>
       </c>
       <c r="H20">
-        <v>19.0954332819824</v>
+        <v>13.09611757699253</v>
       </c>
       <c r="I20">
-        <v>29.88413609288929</v>
+        <v>21.1931822364812</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.73369139038311</v>
+        <v>14.54519099942378</v>
       </c>
       <c r="L20">
-        <v>10.31041936525712</v>
+        <v>6.775381215423073</v>
       </c>
       <c r="M20">
-        <v>15.36746044288465</v>
+        <v>11.52347000145453</v>
       </c>
       <c r="N20">
-        <v>22.07490527186291</v>
+        <v>14.05639897841694</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.32339477393868</v>
+        <v>18.17035212137914</v>
       </c>
       <c r="C21">
-        <v>6.486128335714484</v>
+        <v>9.593748245433284</v>
       </c>
       <c r="D21">
-        <v>6.578717643139685</v>
+        <v>9.092611252589499</v>
       </c>
       <c r="E21">
-        <v>10.76206941263647</v>
+        <v>6.449576631927817</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>49.08408820534371</v>
+        <v>44.39875640302017</v>
       </c>
       <c r="H21">
-        <v>19.07659657947907</v>
+        <v>13.25724794787762</v>
       </c>
       <c r="I21">
-        <v>29.85770003944717</v>
+        <v>21.46481696588356</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.9326161362734</v>
+        <v>15.46445855278796</v>
       </c>
       <c r="L21">
-        <v>10.3095731203811</v>
+        <v>6.911653718633298</v>
       </c>
       <c r="M21">
-        <v>15.41336870550616</v>
+        <v>11.96330805826268</v>
       </c>
       <c r="N21">
-        <v>22.00908611764164</v>
+        <v>13.81583297384306</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.49603264312919</v>
+        <v>18.86429267644585</v>
       </c>
       <c r="C22">
-        <v>6.629654765071488</v>
+        <v>9.920326903832505</v>
       </c>
       <c r="D22">
-        <v>6.680976166240988</v>
+        <v>9.442374070158461</v>
       </c>
       <c r="E22">
-        <v>10.75167799833638</v>
+        <v>6.454259144908403</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>49.2168597568918</v>
+        <v>45.3871536289013</v>
       </c>
       <c r="H22">
-        <v>19.06697018755848</v>
+        <v>13.37139055045658</v>
       </c>
       <c r="I22">
-        <v>29.84493491802085</v>
+        <v>21.65780537352193</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.06338926705616</v>
+        <v>16.04306242857987</v>
       </c>
       <c r="L22">
-        <v>10.310274227941</v>
+        <v>7.002898586243281</v>
       </c>
       <c r="M22">
-        <v>15.44555104907681</v>
+        <v>12.2486972229167</v>
       </c>
       <c r="N22">
-        <v>21.96769466328697</v>
+        <v>13.66198896834468</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.40387178152984</v>
+        <v>18.49633547118362</v>
       </c>
       <c r="C23">
-        <v>6.553525758359441</v>
+        <v>9.746971569780461</v>
       </c>
       <c r="D23">
-        <v>6.626465898592924</v>
+        <v>9.256872283823585</v>
       </c>
       <c r="E23">
-        <v>10.75714706600085</v>
+        <v>6.451562048620859</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>49.14509866354037</v>
+        <v>44.85804629904059</v>
       </c>
       <c r="H23">
-        <v>19.07186231688623</v>
+        <v>13.30964154057941</v>
       </c>
       <c r="I23">
-        <v>29.85133487468233</v>
+        <v>21.55335260773515</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.99353670038301</v>
+        <v>15.73625486378048</v>
       </c>
       <c r="L23">
-        <v>10.30978554690456</v>
+        <v>6.954001213913634</v>
       </c>
       <c r="M23">
-        <v>15.42817734585024</v>
+        <v>12.09658607939012</v>
       </c>
       <c r="N23">
-        <v>21.98963757347128</v>
+        <v>13.74378517459207</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.05560582848276</v>
+        <v>17.04929027043004</v>
       </c>
       <c r="C24">
-        <v>6.25489566344552</v>
+        <v>9.069417413058513</v>
       </c>
       <c r="D24">
-        <v>6.41875390098164</v>
+        <v>8.528244518945993</v>
       </c>
       <c r="E24">
-        <v>10.7795545823863</v>
+        <v>6.445627846132755</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>48.89317680890735</v>
+        <v>42.88915182839099</v>
       </c>
       <c r="H24">
-        <v>19.09578646772339</v>
+        <v>13.09362856781304</v>
       </c>
       <c r="I24">
-        <v>29.88464431382936</v>
+        <v>21.1889953384431</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.7304559884462</v>
+        <v>14.52978572313077</v>
       </c>
       <c r="L24">
-        <v>10.31045442775989</v>
+        <v>6.773191124516689</v>
       </c>
       <c r="M24">
-        <v>15.36674730325968</v>
+        <v>11.51625025393109</v>
       </c>
       <c r="N24">
-        <v>22.07600853659433</v>
+        <v>14.06038718783534</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.6836882925253</v>
+        <v>15.42278617673628</v>
       </c>
       <c r="C25">
-        <v>5.911506204978074</v>
+        <v>8.292526704351424</v>
       </c>
       <c r="D25">
-        <v>6.193391206233444</v>
+        <v>7.68481257121964</v>
       </c>
       <c r="E25">
-        <v>10.80735778254447</v>
+        <v>6.447954543665382</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.66459204117118</v>
+        <v>40.84273357085599</v>
       </c>
       <c r="H25">
-        <v>19.13311131168547</v>
+        <v>12.89649825145317</v>
       </c>
       <c r="I25">
-        <v>29.93992443300026</v>
+        <v>20.85866331260685</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.45133027540331</v>
+        <v>13.130634957976</v>
       </c>
       <c r="L25">
-        <v>10.31658538597273</v>
+        <v>6.587704461098272</v>
       </c>
       <c r="M25">
-        <v>15.3100253046797</v>
+        <v>10.88341752178506</v>
       </c>
       <c r="N25">
-        <v>22.17617354399878</v>
+        <v>14.41610672056121</v>
       </c>
       <c r="O25">
         <v>0</v>
